--- a/console/Networking/iaas网络与容器中文提取/dockerExcel/list.xlsx
+++ b/console/Networking/iaas网络与容器中文提取/dockerExcel/list.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\console;Networking;iaas网络与容器中文提取-0107-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -1241,18 +1236,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Help Documentation of Native Container</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Create&amp;nbsp;</t>
     </r>
   </si>
@@ -1505,18 +1488,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>After the container is deleted, all data will be cleared and cannot be recovered. EIP and the Cloud Disk Service without automatic deletion setting will be still kept. If it is not required to keep the Cloud Disk Service, please go to a corresponding page and delete the same, to avoid additional cost.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Selected</t>
     </r>
   </si>
@@ -1529,18 +1500,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>X container(s), confirm</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Container</t>
     </r>
   </si>
@@ -1578,18 +1537,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Cancel</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OK</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1748,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Task submitted. Please refresh the page later'</t>
+    <t>Documentation of Native Container</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After the container is deleted, all data will be cleared and cannot be recovered. EIP and the Cloud Disk Service without automatic deletion setting will be still kept. If it is not required to keep the Cloud Disk Service, please go to a corresponding page and delete the same, to avoid additional cost.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X container(s), confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Successfully submitted task. Please refresh the page later'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1809,7 +1772,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1819,6 +1782,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1845,14 +1823,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2192,15 +2169,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="38.109375" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -2222,7 +2200,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2233,7 +2211,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2244,10 +2222,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2255,7 +2233,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -2266,7 +2244,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -2277,7 +2255,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2288,7 +2266,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2299,7 +2277,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2310,7 +2288,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2321,7 +2299,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2332,7 +2310,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2343,7 +2321,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2354,7 +2332,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -2365,7 +2343,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2376,7 +2354,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2387,7 +2365,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2398,7 +2376,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2409,7 +2387,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2420,7 +2398,7 @@
         <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2431,7 +2409,7 @@
         <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2442,7 +2420,7 @@
         <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2453,7 +2431,7 @@
         <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2464,7 +2442,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="150" x14ac:dyDescent="0.2">
@@ -2475,7 +2453,7 @@
         <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2486,7 +2464,7 @@
         <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -2497,7 +2475,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2508,7 +2486,7 @@
         <v>55</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2519,7 +2497,7 @@
         <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="60" x14ac:dyDescent="0.2">
@@ -2530,7 +2508,7 @@
         <v>59</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2541,7 +2519,7 @@
         <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2552,7 +2530,7 @@
         <v>63</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -2563,7 +2541,7 @@
         <v>65</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -2574,7 +2552,7 @@
         <v>67</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -2585,7 +2563,7 @@
         <v>69</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2596,7 +2574,7 @@
         <v>71</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2607,7 +2585,7 @@
         <v>73</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2618,7 +2596,7 @@
         <v>75</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2629,7 +2607,7 @@
         <v>77</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2640,7 +2618,7 @@
         <v>79</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -2651,7 +2629,7 @@
         <v>81</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -2662,7 +2640,7 @@
         <v>83</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2673,7 +2651,7 @@
         <v>85</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -2684,7 +2662,7 @@
         <v>87</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -2695,7 +2673,7 @@
         <v>89</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -2706,7 +2684,7 @@
         <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -2717,7 +2695,7 @@
         <v>93</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -2728,10 +2706,10 @@
         <v>95</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
@@ -2739,23 +2717,25 @@
         <v>97</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="E50" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B50" numberStoredAsText="1"/>
   </ignoredErrors>
